--- a/biology/Médecine/René-Maurice_Gattefossé/René-Maurice_Gattefossé.xlsx
+++ b/biology/Médecine/René-Maurice_Gattefossé/René-Maurice_Gattefossé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9-Maurice_Gattefoss%C3%A9</t>
+          <t>René-Maurice_Gattefossé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René-Maurice Gattefossé (né le 19 décembre 1881 à Montchat, quartier de Lyon 3e, et mort le 21 avril 1950 à Casablanca[1]) est considéré comme un des pères fondateurs de l'aromathérapie contemporaine[2],[3]. Il est également l'inventeur du mot « aromathérapie »[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René-Maurice Gattefossé (né le 19 décembre 1881 à Montchat, quartier de Lyon 3e, et mort le 21 avril 1950 à Casablanca) est considéré comme un des pères fondateurs de l'aromathérapie contemporaine,. Il est également l'inventeur du mot « aromathérapie ».
 Ingénieur chimiste de formation, il a dirigé les Établissements Gattefossé pendant la première moitié du XXe siècle. Délaissant progressivement la parfumerie, son métier d’origine, il a réorienté l’entreprise vers les secteurs de la dermatologie et de la cosmétologie. La recherche touchant l’aromathérapie a été menée parallèlement à ses activités industrielles.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9-Maurice_Gattefoss%C3%A9</t>
+          <t>René-Maurice_Gattefossé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René-Maurice Gattefossé naît en 1881 à Montchat (Lyon). C’est le troisième enfant d’une famille qui en comptera cinq. Il baigne dès son plus jeune âge dans le monde des parfums : son père Louis, fondateur des Établissements Gattefossé en 1880, est représentant de sociétés étrangères fabriquant des huiles essentielles, des huiles de vaseline, des produits de droguerie, des matières premières pour la parfumerie.
 Il suit des études d’ingénieur chimiste à l'université de Lyon et, très vite, intègre l'entreprise familiale. Tandis que son grand frère Abel est chargé du commerce et de l'administratif, René-Maurice s'occupe de la recherche sur les essences et les parfums (il travaille activement au développement et à la stabilisation des parfums de synthèse). Il publie en 1906 le Guide pratique et formulaire du parfumeur moderne, de nombreuses fois réédité. Ce succès, suivi bientôt d’autres publications, confère à l’entreprise Gattefossé un réel ascendant scientifique sur le secteur[réf. nécessaire].
@@ -532,7 +546,7 @@
 Quelques années plus tard, R.-M. G. est rejoint par Émile Mahler, son gendre, diplômé de l’Institut de chimie de Paris. Émile est chargé de la Recherche.
 En 1937, R.-M. G. publie Aromathérapie. Ce livre rassemble ses publications précédentes consacrées à la thérapeutique par les huiles essentielles et fait part des observations cliniques effectuées entre-temps en milieu hospitalier, notamment par les docteurs Jonquières et Gaté.
 La seconde édition de l’Aromathérapie est entamée en 1942 mais ne sera jamais publiée : le développement contemporain des antibiotiques paraît condamner l’ouvrage[réf. nécessaire].
-Dans les années 1940, il travaille, en collaboration avec le Dr Jos Jullien, sur la composition physico-chimique des eaux thermales et leurs actions sur la peau[5],[6].
+Dans les années 1940, il travaille, en collaboration avec le Dr Jos Jullien, sur la composition physico-chimique des eaux thermales et leurs actions sur la peau,.
 Parallèlement, il poursuit la rédaction de plusieurs romans historiques ou philosophiques (Marthe la Salyenne, Les Sages écritures, Paradis Société Anonyme, La République des Anges). Le paysage provençal –il a acquis au début de la guerre le mas Bellile- semble inspirer ses réflexions sur l’histoire, l’origine des civilisations et les écritures.
 Après le conflit, il publie de nouveaux ouvrages sur la cosmétique et l’esthétique dermatologique, fruits de la collaboration avec son fils Henri-Marcel et le Dr Jonquières.
 La Parfumerie Moderne, qui avait cessé de paraître pendant la guerre, reprend en 1947, sous forme de fascicules spécialisés. Les sujets cosmétiques sont désormais plus nombreux que ceux traitant de la parfumerie. 
@@ -549,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9-Maurice_Gattefoss%C3%A9</t>
+          <t>René-Maurice_Gattefossé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,10 +581,12 @@
           <t>Aromathérapie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Branche de la médecine qui consiste à traiter les maladies par les huiles essentielles[7][source insuffisante], l'aromathérapie n'a pas été « inventée » ex nihilo par René-Maurice Gattefossé[réf. nécessaire].
-On date généralement la création de ce néologisme à la parution de l’ouvrage Aromathérapie - Les Huiles essentielles - hormones végétales, en 1937[8]. Or, une étude dans le fonds d'archives Gattefossé a permis de préciser que la trouvaille est légèrement antérieure. En effet, dans le premier manuscrit préparatoire, daté février 1935, le terme n'apparaissait pas encore. Sa première occurrence « publique » date du numéro de décembre 1935 de la « Parfumerie Moderne ». « Aromathérapie » nomma alors une rubrique dans laquelle R.-M. G. publia, tout au long de l'année 1936, des extraits remaniés de ce manuscrit encore inédit. « Aromathérapie » donna ensuite logiquement son nom à l'ouvrage de synthèse paru l'année suivante. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Branche de la médecine qui consiste à traiter les maladies par les huiles essentielles[source insuffisante], l'aromathérapie n'a pas été « inventée » ex nihilo par René-Maurice Gattefossé[réf. nécessaire].
+On date généralement la création de ce néologisme à la parution de l’ouvrage Aromathérapie - Les Huiles essentielles - hormones végétales, en 1937. Or, une étude dans le fonds d'archives Gattefossé a permis de préciser que la trouvaille est légèrement antérieure. En effet, dans le premier manuscrit préparatoire, daté février 1935, le terme n'apparaissait pas encore. Sa première occurrence « publique » date du numéro de décembre 1935 de la « Parfumerie Moderne ». « Aromathérapie » nomma alors une rubrique dans laquelle R.-M. G. publia, tout au long de l'année 1936, des extraits remaniés de ce manuscrit encore inédit. « Aromathérapie » donna ensuite logiquement son nom à l'ouvrage de synthèse paru l'année suivante. 
 Extrait bibliographique :
 « Culture et Industrie des plantes aromatiques et plantes médicales de montagne », 1917, en collaboration avec Lamothe.
 « Propriétés bactéricides de quelques huiles essentielles », 1919.
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9-Maurice_Gattefoss%C3%A9</t>
+          <t>René-Maurice_Gattefossé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +624,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>R.M. Gattefossé « Formulaire de parfumerie et de cosmétique » La Parfumerie moderne, Lyon, 1912
 R.M. Gattefossé et Lamotte, Culture et industrie des plantes aromatiques, Lyon, 1917
